--- a/biology/Botanique/Dendrobiinae/Dendrobiinae.xlsx
+++ b/biology/Botanique/Dendrobiinae/Dendrobiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dendrobiinae sont une sous-tribu de plantes de la famille des Orchidaceae (les orchidées), de la sous-famille des Epidendroideae et de la tribu des Dendrobieae.
 Le taxon compte 8 genres.
@@ -512,7 +524,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acrochaene
 Chaseella
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Stephan Ladislaus Endlicher, Sweet's Hortus Britannicus, 3e ed., par George Don, F. L. S. Londres (Hort. Brit. [Sweet], ed. 3.), 1839, p. 638.</t>
         </is>
